--- a/data/problem.leopard.xlsx
+++ b/data/problem.leopard.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2180" windowWidth="27360" windowHeight="15880" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1440" yWindow="2180" windowWidth="27360" windowHeight="15880" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="problem leopard 2008-2013" sheetId="1" r:id="rId1"/>
     <sheet name="pivot" sheetId="2" r:id="rId2"/>
+    <sheet name="summary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="282">
   <si>
     <t>ID</t>
   </si>
@@ -871,6 +872,12 @@
   </si>
   <si>
     <t>average</t>
+  </si>
+  <si>
+    <t>number.killed</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -8437,7 +8444,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -19530,8 +19537,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B7"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" max="8" activeRow="1" previousRow="6" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" axis="axisRow" fieldPosition="0">
+          <references count="1">
+            <reference field="1" count="6">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19640,4 +19661,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2008</v>
+      </c>
+      <c r="B2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2009</v>
+      </c>
+      <c r="B3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2010</v>
+      </c>
+      <c r="B4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2011</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2012</v>
+      </c>
+      <c r="B6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2013</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2014</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2015</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>